--- a/medicine/Psychotrope/Johan_Kjeldahl/Johan_Kjeldahl.xlsx
+++ b/medicine/Psychotrope/Johan_Kjeldahl/Johan_Kjeldahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Gustav Christoffer Thorsager Kjeldahl (né le 16 août 1849 à Jægerspris et mort le 18 juillet 1900 à Copenhague) est un chimiste danois qui a développé une méthode pour mesurer le taux d'azote dans la matière organique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kjeldahl travaillait à Copenhague, au Carlsberg Laboratory, en association avec la brasserie Carlsberg, dont il dirigea le département de chimie de 1876 à 1900.
 On lui confia la recherche d'une méthode permettant de déterminer la quantité de protéines présente dans le grain de malt utilisé pour la fabrication de la bière ; en effet, moins le malt contient de protéines plus il fournit de bière. Kjeldahl trouva une réponse en développant une technique permettant de déterminer avec précision la concentration en azote.
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre de Dannebrog</t>
         </is>
